--- a/BOM/Lineux Vzbot Bom.xlsx
+++ b/BOM/Lineux Vzbot Bom.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
   <si>
     <t>Vzbot Carriage</t>
   </si>
@@ -73,15 +73,12 @@
     <t>Locking Plate</t>
   </si>
   <si>
-    <t>m3 x 10mm dowel pin</t>
+    <t>m3 x 16mm dowel pin</t>
   </si>
   <si>
     <t>Slider</t>
   </si>
   <si>
-    <t>m3 x 16mm dowel pin</t>
-  </si>
-  <si>
     <t>m3 x 20mm dowel pin</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
     <t>m3 x 54mm dowel pin</t>
   </si>
   <si>
+    <t>m5 hex nut</t>
+  </si>
+  <si>
     <t>mr63zz bearing</t>
   </si>
   <si>
@@ -157,13 +157,13 @@
     <t>10 x 5mm magnet</t>
   </si>
   <si>
-    <t>V6 CHP Hotend</t>
-  </si>
-  <si>
-    <t>Sherpa Micro Extruder</t>
-  </si>
-  <si>
-    <t>Nema 14 Round Motor</t>
+    <t>V6 CHP Hotend (self preference)</t>
+  </si>
+  <si>
+    <t>Sherpa Micro Extruder (self preference)</t>
+  </si>
+  <si>
+    <t>Nema 14 Round Motor (self preference)</t>
   </si>
   <si>
     <t>3010 axial fan</t>
@@ -172,6 +172,9 @@
     <t>4010 radial fan</t>
   </si>
   <si>
+    <t>microswitch</t>
+  </si>
+  <si>
     <t>Ebb36 Mount</t>
   </si>
   <si>
@@ -181,30 +184,30 @@
     <t>Depends on extruder used</t>
   </si>
   <si>
+    <t>Ebb36 Spacer</t>
+  </si>
+  <si>
+    <t>Depends on Extruder used</t>
+  </si>
+  <si>
     <t>m3 x 10mm fhcs</t>
   </si>
   <si>
-    <t>Ebb36 Spacer</t>
-  </si>
-  <si>
-    <t>Depends on Extruder used</t>
+    <t>Ebb36 Mount Spacer</t>
+  </si>
+  <si>
+    <t>Optional if required</t>
   </si>
   <si>
     <t>m3 x 20mm bhcs</t>
   </si>
   <si>
-    <t>Ebb36 Mount Spacer</t>
-  </si>
-  <si>
-    <t>Optional if required</t>
+    <t>Ebb Cover with Status Led</t>
   </si>
   <si>
     <t>m3 x 30mm bhcs</t>
   </si>
   <si>
-    <t>Ebb Cover with Status Led</t>
-  </si>
-  <si>
     <t>Led</t>
   </si>
   <si>
@@ -214,6 +217,9 @@
     <t>Led Carrier</t>
   </si>
   <si>
+    <t>Led Diffuser</t>
+  </si>
+  <si>
     <t>Dock</t>
   </si>
   <si>
@@ -235,25 +241,25 @@
     <t>Cut silicone brush into strip according to size</t>
   </si>
   <si>
-    <t>Pin Stopper</t>
-  </si>
-  <si>
     <t>Spring Cover</t>
   </si>
   <si>
+    <t>Umbilical Extrusion Mount</t>
+  </si>
+  <si>
     <t>m5 x 8mm bhcs</t>
   </si>
   <si>
-    <t>Umbilical Extrusion Mount</t>
+    <t>Fixed Dock Extrusion Mount R</t>
   </si>
   <si>
     <t>m5 x 10mm bhcs</t>
   </si>
   <si>
-    <t>Fixed Dock Extrusion Mount R</t>
-  </si>
-  <si>
     <t>Fixed Dock Extrusion Mount L</t>
+  </si>
+  <si>
+    <t>m4 x 12mm threaded dowel pin ID m3</t>
   </si>
   <si>
     <t>m3 t nut</t>
@@ -790,7 +796,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="11">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>21</v>
@@ -805,7 +811,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -832,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="11">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -1125,10 +1131,10 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="C37" s="11">
         <v>1.0</v>
@@ -1139,33 +1145,33 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C38" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F38" s="11">
         <v>1.0</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C39" s="11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>57</v>
@@ -1179,7 +1185,7 @@
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>59</v>
@@ -1199,13 +1205,13 @@
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>63</v>
@@ -1214,128 +1220,124 @@
         <v>1.0</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C42" s="11">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C43" s="11">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C44" s="11">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" s="13">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
+        <v>3.0</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="F45" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="E46" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="13">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="E48" s="5" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="E49" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="s">
+      <c r="F49" s="4"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F50" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G50" s="10" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="15"/>
-      <c r="B50" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F50" s="11">
-        <v>1.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="15"/>
       <c r="B51" s="10" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C51" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F51" s="11">
         <v>1.0</v>
@@ -1344,46 +1346,46 @@
     <row r="52">
       <c r="A52" s="15"/>
       <c r="B52" s="10" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C52" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>72</v>
       </c>
       <c r="F52" s="11">
         <v>1.0</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="15"/>
       <c r="B53" s="10" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C53" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="11">
         <v>1.0</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="15"/>
       <c r="B54" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C54" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F54" s="11">
         <v>1.0</v>
@@ -1392,10 +1394,10 @@
     <row r="55">
       <c r="A55" s="15"/>
       <c r="B55" s="10" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C55" s="11">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>77</v>
@@ -1410,7 +1412,7 @@
         <v>78</v>
       </c>
       <c r="C56" s="11">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>79</v>
@@ -1422,13 +1424,13 @@
     <row r="57">
       <c r="A57" s="15"/>
       <c r="B57" s="10" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C57" s="11">
         <v>1.0</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F57" s="13">
         <v>1.0</v>
@@ -1437,43 +1439,45 @@
     <row r="58">
       <c r="A58" s="15"/>
       <c r="B58" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="11">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
     </row>
     <row r="59">
       <c r="A59" s="15"/>
       <c r="B59" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="11">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="15"/>
       <c r="B60" s="10" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C60" s="11">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="15"/>
       <c r="B61" s="10" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C61" s="11">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="15"/>
       <c r="B62" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="11">
         <v>1.0</v>
@@ -1482,32 +1486,41 @@
     <row r="63">
       <c r="A63" s="15"/>
       <c r="B63" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="17"/>
-      <c r="B64" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="13">
+      <c r="A64" s="15"/>
+      <c r="B64" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="17"/>
+      <c r="B65" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="13">
         <v>1.0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="E49:F49"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/BOM/Lineux Vzbot Bom.xlsx
+++ b/BOM/Lineux Vzbot Bom.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
   <si>
     <t>Vzbot Carriage</t>
   </si>
@@ -49,43 +49,52 @@
     <t>Carriage Body Top</t>
   </si>
   <si>
+    <t>m3 x 10mm shcs</t>
+  </si>
+  <si>
+    <t>Carriage Body Bottom</t>
+  </si>
+  <si>
     <t>m3 x 12mm bhcs</t>
   </si>
   <si>
-    <t>Carriage Body Bottom</t>
+    <t>Carriage Body Rear</t>
+  </si>
+  <si>
+    <t>m3 x 20mm shcs</t>
+  </si>
+  <si>
+    <t>Carriage Body Middle</t>
+  </si>
+  <si>
+    <t>m3 x 30mm shcs</t>
+  </si>
+  <si>
+    <t>Locking Plate</t>
   </si>
   <si>
     <t>m3 x 40mm bhcs</t>
   </si>
   <si>
-    <t>Carriage Body Rear</t>
+    <t>Slider</t>
   </si>
   <si>
     <t>m3 hex nut</t>
   </si>
   <si>
-    <t>Carriage Body Middle</t>
-  </si>
-  <si>
     <t>m3 brass insert</t>
   </si>
   <si>
-    <t>Locking Plate</t>
-  </si>
-  <si>
     <t>m3 x 16mm dowel pin</t>
   </si>
   <si>
-    <t>Slider</t>
-  </si>
-  <si>
     <t>m3 x 20mm dowel pin</t>
   </si>
   <si>
     <t>m3 x 35mm dowel pin</t>
   </si>
   <si>
-    <t>m3 x 54mm dowel pin</t>
+    <t>m3 x 55mm dowel pin</t>
   </si>
   <si>
     <t>m5 hex nut</t>
@@ -94,7 +103,7 @@
     <t>mr63zz bearing</t>
   </si>
   <si>
-    <t>10 x 5mm Magnet</t>
+    <t>10 x 5mm N52 Magnet</t>
   </si>
   <si>
     <t>Toolhead</t>
@@ -110,9 +119,6 @@
   </si>
   <si>
     <t>Option depends on whether there's or not probe for the Toolhead</t>
-  </si>
-  <si>
-    <t>m3 x 20mm shcs</t>
   </si>
   <si>
     <t>Back Plate</t>
@@ -736,7 +742,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="11">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>13</v>
@@ -751,7 +757,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>15</v>
@@ -766,7 +772,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>17</v>
@@ -781,7 +787,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="11">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>19</v>
@@ -796,7 +802,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>21</v>
@@ -813,6 +819,8 @@
       <c r="C12" s="11">
         <v>2.0</v>
       </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="9"/>
@@ -820,8 +828,10 @@
         <v>23</v>
       </c>
       <c r="C13" s="11">
-        <v>2.0</v>
-      </c>
+        <v>13.0</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="9"/>
@@ -829,8 +839,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="11">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="9"/>
@@ -838,7 +850,7 @@
         <v>25</v>
       </c>
       <c r="C15" s="11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -847,198 +859,186 @@
         <v>26</v>
       </c>
       <c r="C16" s="11">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="11">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="11">
         <v>4.0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="12"/>
-      <c r="B17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="13">
+    <row r="20">
+      <c r="A20" s="12"/>
+      <c r="B20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="13">
         <v>6.0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="E20" s="5" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="E23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" s="11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F25" s="11">
         <v>1.0</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C26" s="11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F26" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>42</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C27" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
+        <v>6.0</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C28" s="11">
         <v>3.0</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
+      <c r="E28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="16"/>
+        <v>3.0</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="11">
         <v>3.0</v>
@@ -1048,65 +1048,62 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="11">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="11">
         <v>1.0</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="10"/>
+        <v>3.0</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="10"/>
+        <v>6.0</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="11">
         <v>1.0</v>
@@ -1117,13 +1114,13 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="11"/>
@@ -1131,10 +1128,10 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="11">
         <v>1.0</v>
@@ -1145,247 +1142,241 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C38" s="11">
         <v>1.0</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>6</v>
       </c>
       <c r="C39" s="11">
         <v>2.0</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>58</v>
-      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C40" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>61</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C41" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F41" s="11">
         <v>1.0</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="C42" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="16"/>
+        <v>2.0</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C43" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="16"/>
+        <v>3.0</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F43" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C44" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="11">
         <v>2.0</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="13">
+      <c r="E47" s="15"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="13">
         <v>3.0</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F45" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="E46" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="13">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="E48" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="F48" s="11">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="E49" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="13">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="E49" s="5" t="s">
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="E52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="s">
+      <c r="F52" s="4"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B53" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C53" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E53" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F53" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="15"/>
-      <c r="B51" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="15"/>
-      <c r="B52" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="15"/>
-      <c r="B53" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" s="11">
-        <v>1.0</v>
-      </c>
       <c r="G53" s="10" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="15"/>
       <c r="B54" s="10" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C54" s="11">
         <v>1.0</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F54" s="11">
         <v>1.0</v>
@@ -1394,13 +1385,13 @@
     <row r="55">
       <c r="A55" s="15"/>
       <c r="B55" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C55" s="11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F55" s="11">
         <v>1.0</v>
@@ -1409,70 +1400,91 @@
     <row r="56">
       <c r="A56" s="15"/>
       <c r="B56" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C56" s="11">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F56" s="11">
         <v>1.0</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="15"/>
       <c r="B57" s="10" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="C57" s="11">
         <v>1.0</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" s="13">
+      <c r="E57" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="15"/>
       <c r="B58" s="10" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="C58" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+        <v>3.0</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="11">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="15"/>
       <c r="B59" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C59" s="11">
-        <v>2.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="11">
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="15"/>
       <c r="B60" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C60" s="11">
-        <v>11.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="13">
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="15"/>
       <c r="B61" s="10" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C61" s="11">
-        <v>4.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
     </row>
     <row r="62">
       <c r="A62" s="15"/>
@@ -1480,7 +1492,7 @@
         <v>85</v>
       </c>
       <c r="C62" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
@@ -1489,38 +1501,65 @@
         <v>86</v>
       </c>
       <c r="C63" s="11">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="15"/>
       <c r="B64" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="11">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="15"/>
+      <c r="B65" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="17"/>
-      <c r="B65" s="14" t="s">
+      <c r="C65" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="15"/>
+      <c r="B66" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C66" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="15"/>
+      <c r="B67" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="17"/>
+      <c r="B68" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="13">
         <v>1.0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="E52:F52"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A51:F51"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/BOM/Lineux Vzbot Bom.xlsx
+++ b/BOM/Lineux Vzbot Bom.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>Vzbot Carriage</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Umbilical Extrusion Mount</t>
+  </si>
+  <si>
+    <t>m3 washer</t>
   </si>
   <si>
     <t>m5 x 8mm bhcs</t>
@@ -1176,7 +1179,7 @@
         <v>55</v>
       </c>
       <c r="C40" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="11"/>
@@ -1383,9 +1386,9 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="15"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C55" s="11">
         <v>2.0</v>
@@ -1418,28 +1421,24 @@
     <row r="57">
       <c r="A57" s="15"/>
       <c r="B57" s="10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C57" s="11">
         <v>1.0</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F57" s="11">
-        <v>1.0</v>
-      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58">
       <c r="A58" s="15"/>
       <c r="B58" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58" s="11">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F58" s="11">
         <v>1.0</v>
@@ -1448,13 +1447,13 @@
     <row r="59">
       <c r="A59" s="15"/>
       <c r="B59" s="10" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C59" s="11">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F59" s="11">
         <v>1.0</v>
@@ -1463,54 +1462,62 @@
     <row r="60">
       <c r="A60" s="15"/>
       <c r="B60" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C60" s="11">
         <v>1.0</v>
       </c>
-      <c r="E60" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F60" s="13">
-        <v>1.0</v>
-      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="11"/>
     </row>
     <row r="61">
       <c r="A61" s="15"/>
       <c r="B61" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C61" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+        <v>10.0</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F61" s="11">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="15"/>
       <c r="B62" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C62" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62" s="13">
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="15"/>
       <c r="B63" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="11">
-        <v>11.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
     </row>
     <row r="64">
       <c r="A64" s="15"/>
       <c r="B64" s="10" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="C64" s="11">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
@@ -1519,33 +1526,51 @@
         <v>87</v>
       </c>
       <c r="C65" s="11">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="15"/>
       <c r="B66" s="10" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C66" s="11">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="15"/>
       <c r="B67" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="15"/>
+      <c r="B68" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="17"/>
-      <c r="B68" s="14" t="s">
+      <c r="C68" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="15"/>
+      <c r="B69" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C69" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="17"/>
+      <c r="B70" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="13">
         <v>1.0</v>
       </c>
     </row>

--- a/BOM/Lineux Vzbot Bom.xlsx
+++ b/BOM/Lineux Vzbot Bom.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
   <si>
     <t>Vzbot Carriage</t>
   </si>
@@ -112,6 +112,9 @@
     <t>Remarks</t>
   </si>
   <si>
+    <t>m2.5 x 8mm shcs (V6 CHP Hotend)</t>
+  </si>
+  <si>
     <t>m3 x 12mm shcs</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>Option depends on whether there's or not probe for the Toolhead</t>
   </si>
   <si>
+    <t>m3 x 20mm shcs (2 for Sherpa Micro)</t>
+  </si>
+  <si>
     <t>Back Plate</t>
   </si>
   <si>
@@ -154,7 +160,7 @@
     <t>m4 x 15mm dowel pin</t>
   </si>
   <si>
-    <t>6 x 3mm magnet</t>
+    <t>6 x 3mm magnet (2 for klicky)</t>
   </si>
   <si>
     <t>8 x 5mm magnet</t>
@@ -190,13 +196,16 @@
     <t>Depends on extruder used</t>
   </si>
   <si>
+    <t>m3 x 10mm fhcs</t>
+  </si>
+  <si>
     <t>Ebb36 Spacer</t>
   </si>
   <si>
     <t>Depends on Extruder used</t>
   </si>
   <si>
-    <t>m3 x 10mm fhcs</t>
+    <t>m3 x 20mm bhcs</t>
   </si>
   <si>
     <t>Ebb36 Mount Spacer</t>
@@ -205,13 +214,10 @@
     <t>Optional if required</t>
   </si>
   <si>
-    <t>m3 x 20mm bhcs</t>
+    <t>m3 x 30mm bhcs</t>
   </si>
   <si>
     <t>Ebb Cover with Status Led</t>
-  </si>
-  <si>
-    <t>m3 x 30mm bhcs</t>
   </si>
   <si>
     <t>Led</t>
@@ -947,33 +953,30 @@
         <v>33</v>
       </c>
       <c r="C25" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>35</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C26" s="11">
         <v>2.0</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -981,19 +984,16 @@
         <v>31</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C27" s="11">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F27" s="11">
         <v>1.0</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="28">
@@ -1001,19 +1001,19 @@
         <v>31</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="F28" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="29">
@@ -1021,19 +1021,19 @@
         <v>31</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="11">
         <v>3.0</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="F29" s="11">
-        <v>6.0</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -1041,20 +1041,27 @@
         <v>31</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="11">
         <v>3.0</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
+      <c r="E30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="11">
         <v>3.0</v>
@@ -1067,10 +1074,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="16"/>
@@ -1080,7 +1087,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="11">
         <v>3.0</v>
@@ -1093,10 +1100,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
@@ -1106,21 +1113,20 @@
         <v>31</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="10"/>
+        <v>6.0</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11">
         <v>1.0</v>
@@ -1134,7 +1140,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="11">
         <v>1.0</v>
@@ -1148,7 +1154,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11">
         <v>1.0</v>
@@ -1162,10 +1168,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="11"/>
@@ -1176,7 +1182,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11">
         <v>2.0</v>
@@ -1187,39 +1193,33 @@
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>58</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="C42" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>60</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>61</v>
@@ -1239,7 +1239,7 @@
         <v>62</v>
       </c>
       <c r="F43" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>63</v>
@@ -1247,13 +1247,13 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C44" s="11">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>65</v>
@@ -1262,25 +1262,32 @@
         <v>1.0</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="11">
         <v>1.0</v>
       </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="16"/>
+      <c r="E45" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>23</v>
@@ -1293,7 +1300,7 @@
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>22</v>
@@ -1306,16 +1313,16 @@
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C48" s="13">
         <v>3.0</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F48" s="11">
         <v>1.0</v>
@@ -1326,84 +1333,76 @@
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="E49" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F49" s="13">
         <v>1.0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" s="7"/>
+    <row r="50">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="E52" s="5" t="s">
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="E53" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="6" t="s">
+      <c r="F53" s="4"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E54" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F54" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G54" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="15"/>
-      <c r="B54" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
     <row r="55">
-      <c r="A55" s="9"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10" t="s">
         <v>10</v>
-      </c>
-      <c r="C55" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="15"/>
-      <c r="B56" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="C56" s="11">
         <v>2.0</v>
@@ -1413,47 +1412,47 @@
       </c>
       <c r="F56" s="11">
         <v>1.0</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="15"/>
       <c r="B57" s="10" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C57" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="11"/>
+        <v>2.0</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="15"/>
       <c r="B58" s="10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C58" s="11">
         <v>1.0</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F58" s="11">
-        <v>1.0</v>
-      </c>
+      <c r="E58" s="9"/>
+      <c r="F58" s="11"/>
     </row>
     <row r="59">
       <c r="A59" s="15"/>
       <c r="B59" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C59" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F59" s="11">
         <v>1.0</v>
@@ -1462,28 +1461,28 @@
     <row r="60">
       <c r="A60" s="15"/>
       <c r="B60" s="10" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C60" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="11"/>
+        <v>2.0</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F60" s="11">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="15"/>
       <c r="B61" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" s="11">
-        <v>1.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="11"/>
     </row>
     <row r="62">
       <c r="A62" s="15"/>
@@ -1491,12 +1490,12 @@
         <v>83</v>
       </c>
       <c r="C62" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="E62" s="12" t="s">
+        <v>10.0</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="11">
         <v>1.0</v>
       </c>
     </row>
@@ -1508,49 +1507,55 @@
       <c r="C63" s="11">
         <v>1.0</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="E63" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" s="13">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="15"/>
       <c r="B64" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" s="11">
-        <v>2.0</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
     </row>
     <row r="65">
       <c r="A65" s="15"/>
       <c r="B65" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C65" s="11">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="15"/>
       <c r="B66" s="10" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C66" s="11">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="15"/>
       <c r="B67" s="10" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C67" s="11">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="15"/>
       <c r="B68" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C68" s="11">
         <v>1.0</v>
@@ -1559,32 +1564,41 @@
     <row r="69">
       <c r="A69" s="15"/>
       <c r="B69" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C69" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="17"/>
-      <c r="B70" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="13">
+      <c r="A70" s="15"/>
+      <c r="B70" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="17"/>
+      <c r="B71" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="13">
         <v>1.0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="E53:F53"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/BOM/Lineux Vzbot Bom.xlsx
+++ b/BOM/Lineux Vzbot Bom.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
   <si>
     <t>Vzbot Carriage</t>
   </si>
@@ -274,7 +274,7 @@
     <t>Fixed Dock Extrusion Mount L</t>
   </si>
   <si>
-    <t>m4 x 12mm threaded dowel pin ID m3</t>
+    <t>m4 x 15mm threaded dowel pin ID m3</t>
   </si>
   <si>
     <t>m3 t nut</t>
@@ -283,7 +283,10 @@
     <t>m5 t nut</t>
   </si>
   <si>
-    <t>spring OD6 ID5 15mm</t>
+    <t>m5 spring t nut</t>
+  </si>
+  <si>
+    <t>spring OD6 ID5 17mm</t>
   </si>
   <si>
     <t>AA battery terminal</t>
@@ -299,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -312,6 +315,10 @@
       <scheme val="minor"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -397,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -441,6 +448,9 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,7 +1400,7 @@
         <v>74</v>
       </c>
       <c r="C55" s="11">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>75</v>
@@ -1420,7 +1430,7 @@
         <v>77</v>
       </c>
       <c r="C57" s="11">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>78</v>
@@ -1540,25 +1550,25 @@
         <v>89</v>
       </c>
       <c r="C66" s="11">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="15"/>
-      <c r="B67" s="10" t="s">
-        <v>50</v>
+      <c r="B67" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="C67" s="11">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="15"/>
       <c r="B68" s="10" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C68" s="11">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="69">
@@ -1580,11 +1590,20 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="17"/>
-      <c r="B71" s="14" t="s">
+      <c r="A71" s="15"/>
+      <c r="B71" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="11">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="18"/>
+      <c r="B72" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="13">
         <v>1.0</v>
       </c>
     </row>
